--- a/tables/TableS4-5_envi_param_table.xlsx
+++ b/tables/TableS4-5_envi_param_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1492E6-EFDB-3246-9BC9-C97A77645D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA5570-3789-0A4B-897E-5147CB41FFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{BF55C753-D646-E645-A0FE-9B968723D3C6}"/>
+    <workbookView xWindow="23760" yWindow="8100" windowWidth="25600" windowHeight="15540" xr2:uid="{BF55C753-D646-E645-A0FE-9B968723D3C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Sea surface salinity (psu)</t>
   </si>
@@ -88,9 +88,6 @@
     <t>po4 (mol/m3)</t>
   </si>
   <si>
-    <t>Mean minus s.d. &lt; 0.4 mg/m3</t>
-  </si>
-  <si>
     <t>Total chlorophyll concentration at surface (mg/m3)</t>
   </si>
   <si>
@@ -146,6 +143,12 @@
   </si>
   <si>
     <t>Aragonite saturation (Ω, ratio)</t>
+  </si>
+  <si>
+    <t>Mean minus s.d. &lt; 0.2 mg/m3</t>
+  </si>
+  <si>
+    <t>Derived in this study</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,16 +582,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -606,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -623,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -640,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -648,16 +651,16 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -665,16 +668,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -717,7 +720,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,7 +752,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -757,7 +760,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -797,15 +800,15 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
